--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -416,7 +416,7 @@
     <t>serie</t>
   </si>
   <si>
-    <t>Consenso madre</t>
+    <t>Atto Consenso Madre</t>
   </si>
   <si>
     <t>evento.consensoMadre.atto</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>109</v>
@@ -2965,7 +2965,7 @@
         <v>42</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>109</v>
@@ -2985,7 +2985,7 @@
         <v>44</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>109</v>
@@ -3005,7 +3005,7 @@
         <v>46</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>109</v>
@@ -3025,7 +3025,7 @@
         <v>48</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>109</v>
@@ -3045,7 +3045,7 @@
         <v>50</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>109</v>
@@ -3065,7 +3065,7 @@
         <v>52</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>109</v>
@@ -3085,7 +3085,7 @@
         <v>54</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>109</v>
@@ -3105,7 +3105,7 @@
         <v>56</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>109</v>
@@ -3125,7 +3125,7 @@
         <v>58</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>109</v>
@@ -3145,7 +3145,7 @@
         <v>60</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>109</v>
@@ -3165,7 +3165,7 @@
         <v>62</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>109</v>
@@ -3185,7 +3185,7 @@
         <v>64</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>109</v>
@@ -3205,7 +3205,7 @@
         <v>66</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>109</v>
@@ -3225,7 +3225,7 @@
         <v>68</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>109</v>
@@ -3245,7 +3245,7 @@
         <v>70</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>109</v>
@@ -3265,7 +3265,7 @@
         <v>72</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>109</v>
@@ -3285,7 +3285,7 @@
         <v>74</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>109</v>
@@ -3305,7 +3305,7 @@
         <v>76</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>109</v>
@@ -3325,7 +3325,7 @@
         <v>78</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>109</v>
@@ -3345,7 +3345,7 @@
         <v>80</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>109</v>
@@ -3365,7 +3365,7 @@
         <v>82</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>109</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="172">
   <si>
     <t>Sezione</t>
   </si>
@@ -416,13 +416,16 @@
     <t>serie</t>
   </si>
   <si>
+    <t>Atto Consenso</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.atto</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre</t>
+  </si>
+  <si>
     <t>Atto Consenso Madre</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.atto</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -3879,19 +3882,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>17</v>
@@ -3899,19 +3902,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>17</v>
@@ -3919,19 +3922,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>17</v>
@@ -3939,19 +3942,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>9</v>
@@ -3959,19 +3962,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>17</v>
@@ -3979,19 +3982,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>9</v>
@@ -3999,19 +4002,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>17</v>
@@ -4019,19 +4022,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>17</v>
@@ -4039,19 +4042,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>17</v>
@@ -4059,19 +4062,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>17</v>
@@ -4079,19 +4082,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>9</v>
@@ -4099,19 +4102,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>17</v>
@@ -4119,19 +4122,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>9</v>
@@ -4139,19 +4142,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>17</v>
@@ -4159,7 +4162,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>39</v>
@@ -4168,18 +4171,18 @@
         <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>42</v>
@@ -4188,18 +4191,18 @@
         <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>44</v>
@@ -4208,18 +4211,18 @@
         <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>46</v>
@@ -4228,18 +4231,18 @@
         <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>48</v>
@@ -4248,7 +4251,7 @@
         <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>49</v>
@@ -4259,7 +4262,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>50</v>
@@ -4268,18 +4271,18 @@
         <v>8</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>52</v>
@@ -4288,7 +4291,7 @@
         <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>53</v>
@@ -4299,7 +4302,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>54</v>
@@ -4308,18 +4311,18 @@
         <v>8</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>56</v>
@@ -4328,7 +4331,7 @@
         <v>8</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>57</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>58</v>
@@ -4348,18 +4351,18 @@
         <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>60</v>
@@ -4368,7 +4371,7 @@
         <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>61</v>
@@ -4379,7 +4382,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>62</v>
@@ -4388,18 +4391,18 @@
         <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>64</v>
@@ -4408,7 +4411,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>65</v>
@@ -4419,7 +4422,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>66</v>
@@ -4428,18 +4431,18 @@
         <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>68</v>
@@ -4448,7 +4451,7 @@
         <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>69</v>
@@ -4459,7 +4462,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>70</v>
@@ -4468,18 +4471,18 @@
         <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>72</v>
@@ -4488,7 +4491,7 @@
         <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>73</v>
@@ -4499,7 +4502,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>74</v>
@@ -4508,18 +4511,18 @@
         <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>76</v>
@@ -4528,18 +4531,18 @@
         <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>78</v>
@@ -4548,18 +4551,18 @@
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>80</v>
@@ -4568,18 +4571,18 @@
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>82</v>
@@ -4588,30 +4591,30 @@
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4619,19 +4622,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>19</v>
@@ -4639,10 +4642,10 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>11</v>
@@ -4651,7 +4654,7 @@
         <v>26</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -4659,10 +4662,10 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>11</v>
@@ -4671,7 +4674,7 @@
         <v>107</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -4679,10 +4682,10 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
@@ -4691,7 +4694,7 @@
         <v>107</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -4699,10 +4702,10 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>11</v>
@@ -4711,7 +4714,7 @@
         <v>136</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -296,6 +302,9 @@
     <t>dataMorte</t>
   </si>
   <si>
+    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+  </si>
+  <si>
     <t>Ora</t>
   </si>
   <si>
@@ -422,6 +431,9 @@
     <t>evento.consensoMadre.atto</t>
   </si>
   <si>
+    <t>{evento.consensoMadre.tipoConsenso,!=,2}</t>
+  </si>
+  <si>
     <t>evento.consensoMadre</t>
   </si>
   <si>
@@ -437,6 +449,9 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
+    <t>{evento.consensoMadre.tipoConsenso,!=,3}</t>
+  </si>
+  <si>
     <t>Estremi documento</t>
   </si>
   <si>
@@ -479,6 +494,9 @@
     <t>evento.consensoMadre.sentenzaTribunale</t>
   </si>
   <si>
+    <t>{evento.consensoMadre.tipoConsenso,!=,4}</t>
+  </si>
+  <si>
     <t>Interprete</t>
   </si>
   <si>
@@ -486,6 +504,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -586,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G206"/>
+  <dimension ref="A1:H206"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -598,6 +619,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="48.83984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -619,265 +641,307 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -899,3825 +963,4401 @@
       <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F162" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E167" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F176" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,61 +32,64 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del dichiarante</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Copia dell'atto di riconoscimento effettuato dell'altro genitore</t>
+  </si>
+  <si>
+    <t>Sentenza del Tribunale che autorizza al riconoscimento senza il consenso dell'altro genitore</t>
+  </si>
+  <si>
+    <t>Atto notarile consenso</t>
+  </si>
+  <si>
+    <t>Copia dell'atto di consenso dell'altro genitore</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del dichiarante</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Copia dell'atto di riconoscimento effettuato dell'altro genitore</t>
-  </si>
-  <si>
-    <t>Sentenza del Tribunale che autorizza al riconoscimento senza il consenso dell'altro genitore</t>
-  </si>
-  <si>
-    <t>Atto notarile consenso</t>
-  </si>
-  <si>
-    <t>Copia dell'atto di consenso dell'altro genitore</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -964,4400 +967,4400 @@
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="181">
   <si>
     <t>Sezione</t>
   </si>
@@ -65,6 +65,9 @@
     <t>Copia dell'atto di consenso dell'altro genitore</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -305,7 +308,7 @@
     <t>dataMorte</t>
   </si>
   <si>
-    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
   </si>
   <si>
     <t>Ora</t>
@@ -434,7 +437,7 @@
     <t>evento.consensoMadre.atto</t>
   </si>
   <si>
-    <t>{evento.consensoMadre.tipoConsenso,!=,2}</t>
+    <t>evento.consensoMadre.tipoConsenso,!=,2</t>
   </si>
   <si>
     <t>evento.consensoMadre</t>
@@ -452,7 +455,7 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
-    <t>{evento.consensoMadre.tipoConsenso,!=,3}</t>
+    <t>evento.consensoMadre.tipoConsenso,!=,3</t>
   </si>
   <si>
     <t>Estremi documento</t>
@@ -497,7 +500,7 @@
     <t>evento.consensoMadre.sentenzaTribunale</t>
   </si>
   <si>
-    <t>{evento.consensoMadre.tipoConsenso,!=,4}</t>
+    <t>evento.consensoMadre.tipoConsenso,!=,4</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -509,7 +512,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -610,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H206"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -622,7 +625,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="48.83984375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="47.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -788,13 +791,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -811,13 +814,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -834,7 +837,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -857,7 +860,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -880,7 +883,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -903,7 +906,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -926,7 +929,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -948,3044 +951,3044 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>129</v>
@@ -3994,44 +3997,44 @@
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>132</v>
@@ -4040,228 +4043,228 @@
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>129</v>
@@ -4270,44 +4273,44 @@
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>132</v>
@@ -4316,1051 +4319,1074 @@
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F162" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F163" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
+      <c r="F164" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E165" s="2" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F167" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F169" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="F171" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F172" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F174" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F176" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="F178" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F186" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F188" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F194" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F196" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F197" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="F202" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E206" s="2" t="s">
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>30</v>
+      <c r="C207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="187">
   <si>
     <t>Sezione</t>
   </si>
@@ -323,22 +323,40 @@
     <t>minutoMorte</t>
   </si>
   <si>
-    <t>stato</t>
+    <t>Stato di morte</t>
   </si>
   <si>
     <t>idStatoMorte</t>
   </si>
   <si>
-    <t>provincia</t>
+    <t>Stato di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte</t>
+  </si>
+  <si>
+    <t>idProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte - Descrizione</t>
   </si>
   <si>
     <t>siglaProvinciaMorte</t>
   </si>
   <si>
-    <t>comune</t>
+    <t>Comune di morte</t>
   </si>
   <si>
     <t>idComuneMorte</t>
+  </si>
+  <si>
+    <t>Comune di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneMorte</t>
   </si>
   <si>
     <t>indirizzo</t>
@@ -613,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3330,10 +3348,10 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3344,88 +3362,88 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3436,19 +3454,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3459,19 +3477,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3482,19 +3500,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3505,19 +3523,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3528,19 +3546,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3551,19 +3569,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3574,19 +3592,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3597,19 +3615,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3620,19 +3638,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3643,19 +3661,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3666,19 +3684,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3689,19 +3707,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3712,19 +3730,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3735,19 +3753,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3758,19 +3776,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3781,19 +3799,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3804,19 +3822,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3827,19 +3845,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3850,19 +3868,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3873,19 +3891,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3896,19 +3914,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3919,16 +3937,16 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>124</v>
@@ -3942,7 +3960,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>125</v>
@@ -3951,7 +3969,7 @@
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>126</v>
@@ -3965,7 +3983,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>127</v>
@@ -3974,7 +3992,7 @@
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>128</v>
@@ -3988,7 +4006,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>129</v>
@@ -3997,10 +4015,10 @@
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4011,19 +4029,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4034,19 +4052,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4057,19 +4075,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4080,19 +4098,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4103,19 +4121,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4126,85 +4144,85 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>124</v>
@@ -4213,12 +4231,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>125</v>
@@ -4227,7 +4245,7 @@
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>126</v>
@@ -4236,12 +4254,12 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>127</v>
@@ -4250,7 +4268,7 @@
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>128</v>
@@ -4259,12 +4277,12 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>129</v>
@@ -4273,171 +4291,171 @@
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>19</v>
@@ -4448,19 +4466,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>19</v>
@@ -4471,22 +4489,22 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>147</v>
@@ -4494,30 +4512,30 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E169" s="2" t="s">
+      <c r="F169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>154</v>
@@ -4526,7 +4544,7 @@
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>155</v>
@@ -4535,12 +4553,12 @@
         <v>19</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>156</v>
@@ -4549,21 +4567,21 @@
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>158</v>
@@ -4572,113 +4590,113 @@
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>154</v>
@@ -4687,7 +4705,7 @@
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>155</v>
@@ -4696,12 +4714,12 @@
         <v>19</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>156</v>
@@ -4710,21 +4728,21 @@
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>158</v>
@@ -4733,605 +4751,605 @@
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E203" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>176</v>
@@ -5345,7 +5363,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>177</v>
@@ -5354,13 +5372,13 @@
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>31</v>
@@ -5368,7 +5386,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>179</v>
@@ -5377,7 +5395,7 @@
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>180</v>
@@ -5386,6 +5404,75 @@
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="189">
   <si>
     <t>Sezione</t>
   </si>
@@ -206,6 +206,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -431,22 +437,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Atto Consenso</t>
@@ -631,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1660,22 +1666,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>31</v>
@@ -1683,22 +1689,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>31</v>
@@ -1706,19 +1712,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1729,19 +1735,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1752,19 +1758,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1775,19 +1781,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1798,19 +1804,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1821,22 +1827,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>31</v>
@@ -1844,22 +1850,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>31</v>
@@ -1867,22 +1873,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>31</v>
@@ -1890,22 +1896,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>31</v>
@@ -1913,22 +1919,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>31</v>
@@ -1936,19 +1942,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1959,19 +1965,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1982,19 +1988,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2005,22 +2011,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>31</v>
@@ -2028,19 +2034,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2051,19 +2057,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>19</v>
@@ -2074,22 +2080,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>31</v>
@@ -2097,22 +2103,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>31</v>
@@ -2120,22 +2126,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>31</v>
@@ -2143,19 +2149,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2169,19 +2175,19 @@
         <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>31</v>
@@ -2192,7 +2198,7 @@
         <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
@@ -2201,7 +2207,7 @@
         <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2212,22 +2218,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>31</v>
@@ -2235,19 +2241,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2258,19 +2264,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2287,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2304,19 +2310,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2327,22 +2333,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>31</v>
@@ -2350,19 +2356,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2373,19 +2379,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>19</v>
@@ -2396,19 +2402,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2419,22 +2425,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>31</v>
@@ -2442,22 +2448,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>31</v>
@@ -2465,19 +2471,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2488,19 +2494,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2511,22 +2517,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>31</v>
@@ -2534,19 +2540,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2557,22 +2563,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>31</v>
@@ -2580,19 +2586,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>19</v>
@@ -2603,19 +2609,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2626,22 +2632,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>31</v>
@@ -2649,22 +2655,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>31</v>
@@ -2675,19 +2681,19 @@
         <v>92</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>31</v>
@@ -2698,7 +2704,7 @@
         <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
@@ -2707,7 +2713,7 @@
         <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2721,7 +2727,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
@@ -2730,7 +2736,7 @@
         <v>93</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2741,22 +2747,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>31</v>
@@ -2764,19 +2770,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2787,19 +2793,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2810,19 +2816,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2833,22 +2839,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>31</v>
@@ -2856,19 +2862,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2879,22 +2885,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>31</v>
@@ -2902,22 +2908,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>31</v>
@@ -2925,19 +2931,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2948,22 +2954,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>31</v>
@@ -2971,22 +2977,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>31</v>
@@ -2994,19 +3000,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3017,22 +3023,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>31</v>
@@ -3040,19 +3046,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3063,22 +3069,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>31</v>
@@ -3086,22 +3092,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>31</v>
@@ -3109,22 +3115,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>31</v>
@@ -3132,19 +3138,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3155,22 +3161,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>31</v>
@@ -3181,22 +3187,22 @@
         <v>94</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112">
@@ -3204,22 +3210,22 @@
         <v>94</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113">
@@ -3227,22 +3233,22 @@
         <v>94</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114">
@@ -3250,292 +3256,292 @@
         <v>94</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3546,19 +3552,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3569,19 +3575,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3592,19 +3598,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3615,19 +3621,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3638,19 +3644,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3661,19 +3667,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3684,19 +3690,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3707,19 +3713,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3730,19 +3736,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3753,19 +3759,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3776,19 +3782,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3799,19 +3805,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3822,19 +3828,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3845,19 +3851,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3868,19 +3874,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3891,19 +3897,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3914,19 +3920,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3940,16 +3946,16 @@
         <v>121</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3963,16 +3969,16 @@
         <v>121</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3986,16 +3992,16 @@
         <v>121</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4009,16 +4015,16 @@
         <v>121</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4032,16 +4038,16 @@
         <v>121</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4052,19 +4058,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4075,19 +4081,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4098,19 +4104,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4121,19 +4127,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4144,19 +4150,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4167,19 +4173,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4190,19 +4196,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4213,1266 +4219,1404 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E157" s="2" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E177" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="E184" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="E185" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="2" t="s">
+      <c r="E186" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="E187" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F206" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="G206" s="2" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F207" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G207" s="2" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E210" s="2" t="s">
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="2" t="s">
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="190">
   <si>
     <t>Sezione</t>
   </si>
@@ -536,7 +536,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -649,7 +652,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="47.45703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5464,7 +5467,7 @@
         <v>171</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
@@ -5484,19 +5487,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5507,19 +5510,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>21</v>
@@ -5530,10 +5533,10 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
@@ -5542,7 +5545,7 @@
         <v>29</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
@@ -5553,10 +5556,10 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
@@ -5565,7 +5568,7 @@
         <v>120</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
@@ -5576,10 +5579,10 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5588,7 +5591,7 @@
         <v>120</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
@@ -5599,10 +5602,10 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>12</v>
@@ -5611,7 +5614,7 @@
         <v>150</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="189">
   <si>
     <t>Sezione</t>
   </si>
@@ -537,9 +537,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -5467,7 +5464,7 @@
         <v>171</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
@@ -5487,19 +5484,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="C211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D211" s="2" t="s">
+      <c r="E211" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5510,19 +5507,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>21</v>
@@ -5533,10 +5530,10 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
@@ -5545,7 +5542,7 @@
         <v>29</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
@@ -5556,10 +5553,10 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
@@ -5568,7 +5565,7 @@
         <v>120</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
@@ -5579,10 +5576,10 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5591,7 +5588,7 @@
         <v>120</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
@@ -5602,10 +5599,10 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>12</v>
@@ -5614,7 +5611,7 @@
         <v>150</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="190">
   <si>
     <t>Sezione</t>
   </si>
@@ -537,6 +537,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -5464,7 +5467,7 @@
         <v>171</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
@@ -5484,19 +5487,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5507,19 +5510,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>21</v>
@@ -5530,10 +5533,10 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
@@ -5542,7 +5545,7 @@
         <v>29</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
@@ -5553,10 +5556,10 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
@@ -5565,7 +5568,7 @@
         <v>120</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
@@ -5576,10 +5579,10 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5588,7 +5591,7 @@
         <v>120</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
@@ -5599,10 +5602,10 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>12</v>
@@ -5611,7 +5614,7 @@
         <v>150</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="200">
   <si>
     <t>Sezione</t>
   </si>
@@ -288,6 +288,36 @@
   </si>
   <si>
     <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -640,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:H230"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -650,7 +680,7 @@
     <col min="2" max="2" width="82.625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2221,22 +2251,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>31</v>
@@ -2244,22 +2274,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>31</v>
@@ -2267,19 +2297,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2290,22 +2320,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>31</v>
@@ -2313,22 +2343,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>31</v>
@@ -2336,22 +2366,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>31</v>
@@ -2359,19 +2389,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2382,22 +2412,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>31</v>
@@ -2405,19 +2435,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2428,22 +2458,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>31</v>
@@ -2451,22 +2481,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>31</v>
@@ -2474,19 +2504,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2497,22 +2527,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>31</v>
@@ -2520,19 +2550,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2543,22 +2573,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>31</v>
@@ -2566,22 +2596,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>31</v>
@@ -2589,22 +2619,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>31</v>
@@ -2612,19 +2642,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2635,22 +2665,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>31</v>
@@ -2658,22 +2688,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>31</v>
@@ -2681,19 +2711,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2704,22 +2734,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>31</v>
@@ -2727,19 +2757,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2750,19 +2780,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>19</v>
@@ -2773,22 +2803,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>31</v>
@@ -2796,19 +2826,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2819,19 +2849,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2842,19 +2872,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2865,19 +2895,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2888,22 +2918,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>31</v>
@@ -2911,22 +2941,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>31</v>
@@ -2934,22 +2964,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>31</v>
@@ -2957,19 +2987,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>19</v>
@@ -2980,19 +3010,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>19</v>
@@ -3003,19 +3033,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3026,19 +3056,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3049,19 +3079,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3072,19 +3102,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3095,19 +3125,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3118,22 +3148,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>31</v>
@@ -3141,22 +3171,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>31</v>
@@ -3164,22 +3194,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>31</v>
@@ -3187,19 +3217,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>19</v>
@@ -3210,22 +3240,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>31</v>
@@ -3233,19 +3263,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3256,19 +3286,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3279,275 +3309,275 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>31</v>
@@ -3555,19 +3585,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3578,22 +3608,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>31</v>
@@ -3601,272 +3631,272 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3877,19 +3907,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3900,19 +3930,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3923,19 +3953,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3946,19 +3976,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3969,19 +3999,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3992,19 +4022,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4015,19 +4045,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4038,19 +4068,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4061,19 +4091,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4084,19 +4114,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4107,19 +4137,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4130,19 +4160,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4153,19 +4183,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4176,19 +4206,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4199,19 +4229,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4222,19 +4252,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4245,19 +4275,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4268,19 +4298,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4291,19 +4321,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4314,19 +4344,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4337,1289 +4367,1611 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E166" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E176" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="E183" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F198" s="2" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E213" s="2" t="s">
-        <v>183</v>
+        <v>67</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E216" s="2" t="s">
+      <c r="E225" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F216" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G216" s="2" t="s">
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -158,6 +158,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -212,13 +218,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -332,271 +338,199 @@
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>Dati Riconoscimento - Dati di morte</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>evento.datiDiMorte</t>
-  </si>
-  <si>
-    <t>dataMorte</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
-  </si>
-  <si>
-    <t>Ora</t>
-  </si>
-  <si>
-    <t>oraMorte</t>
-  </si>
-  <si>
-    <t>minuti</t>
-  </si>
-  <si>
-    <t>minutoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte</t>
-  </si>
-  <si>
-    <t>idStatoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte</t>
-  </si>
-  <si>
-    <t>idProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte</t>
-  </si>
-  <si>
-    <t>idComuneMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneMorte</t>
-  </si>
-  <si>
-    <t>indirizzo</t>
-  </si>
-  <si>
-    <t>indirizzoMorte</t>
-  </si>
-  <si>
-    <t>Dati prodotti</t>
+    <t>Dati Riconoscimento - Generalità discendenti</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
+  </si>
+  <si>
+    <t>Atto Nascita Figlio</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.attoNascita</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto Consenso</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.atto</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.tipoConsenso,!=,2</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre</t>
+  </si>
+  <si>
+    <t>Atto Consenso Madre</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.altroUfficiale</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.tipoConsenso,!=,3</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Sentenza di consenso</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.sentenzaTribunale</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.tipoConsenso,!=,4</t>
+  </si>
+  <si>
+    <t>Interprete</t>
+  </si>
+  <si>
+    <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>195,196</t>
+  </si>
+  <si>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Condizioni dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDichiarante</t>
+  </si>
+  <si>
+    <t>comprensione</t>
+  </si>
+  <si>
+    <t>Motivo impedimento scrittura</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScrittura</t>
+  </si>
+  <si>
+    <t>Presenza interprete</t>
+  </si>
+  <si>
+    <t>ausilioInterprete</t>
+  </si>
+  <si>
+    <t>Figlio premorto</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
-  </si>
-  <si>
-    <t>Atto Nascita Figlio</t>
-  </si>
-  <si>
-    <t>Id atto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.attoNascita</t>
-  </si>
-  <si>
-    <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
-  </si>
-  <si>
-    <t>Atto Consenso</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.atto</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.tipoConsenso,!=,2</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre</t>
-  </si>
-  <si>
-    <t>Atto Consenso Madre</t>
-  </si>
-  <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.altroUfficiale</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.tipoConsenso,!=,3</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Sentenza di consenso</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.sentenzaTribunale</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.tipoConsenso,!=,4</t>
-  </si>
-  <si>
-    <t>Interprete</t>
-  </si>
-  <si>
-    <t>evento.interprete</t>
-  </si>
-  <si>
-    <t>195,196</t>
-  </si>
-  <si>
-    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
-    <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Condizioni dichiarante</t>
-  </si>
-  <si>
-    <t>evento.datiDichiarante</t>
-  </si>
-  <si>
-    <t>comprensione</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScrittura</t>
-  </si>
-  <si>
-    <t>Presenza interprete</t>
-  </si>
-  <si>
-    <t>ausilioInterprete</t>
-  </si>
-  <si>
-    <t>Figlio premorto</t>
   </si>
   <si>
     <t>preMorto</t>
@@ -670,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H230"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1722,22 +1656,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>31</v>
@@ -1745,22 +1679,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>31</v>
@@ -1768,19 +1702,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1791,19 +1725,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1814,19 +1748,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1771,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1794,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1883,22 +1817,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>31</v>
@@ -1906,19 +1840,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1929,19 +1863,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>19</v>
@@ -1952,22 +1886,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>31</v>
@@ -1975,22 +1909,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>31</v>
@@ -1998,22 +1932,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>31</v>
@@ -2021,19 +1955,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2044,19 +1978,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2001,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2090,22 +2024,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>31</v>
@@ -2113,19 +2047,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2070,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>19</v>
@@ -2159,22 +2093,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>31</v>
@@ -2182,22 +2116,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>31</v>
@@ -2205,22 +2139,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>31</v>
@@ -2228,19 +2162,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2185,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2274,22 +2208,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>31</v>
@@ -2297,19 +2231,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2254,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>19</v>
@@ -2343,22 +2277,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>31</v>
@@ -2366,19 +2300,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>19</v>
@@ -2389,22 +2323,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>31</v>
@@ -2412,22 +2346,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>31</v>
@@ -2435,19 +2369,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2392,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2415,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2438,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2527,22 +2461,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>31</v>
@@ -2550,19 +2484,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2573,22 +2507,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>31</v>
@@ -2596,19 +2530,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>19</v>
@@ -2619,19 +2553,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2642,22 +2576,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>31</v>
@@ -2665,22 +2599,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>31</v>
@@ -2688,19 +2622,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2711,19 +2645,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2734,22 +2668,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>31</v>
@@ -2757,19 +2691,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2780,22 +2714,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>31</v>
@@ -2803,19 +2737,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>19</v>
@@ -2826,19 +2760,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2849,22 +2783,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>31</v>
@@ -2872,22 +2806,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>31</v>
@@ -2895,19 +2829,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2918,22 +2852,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>31</v>
@@ -2941,19 +2875,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2964,22 +2898,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>31</v>
@@ -2987,19 +2921,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>19</v>
@@ -3013,7 +2947,7 @@
         <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -3022,10 +2956,10 @@
         <v>105</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>31</v>
@@ -3036,19 +2970,19 @@
         <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>31</v>
@@ -3059,19 +2993,19 @@
         <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>31</v>
@@ -3079,22 +3013,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>31</v>
@@ -3102,19 +3036,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3125,19 +3059,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3148,19 +3082,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3171,22 +3105,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>31</v>
@@ -3194,19 +3128,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3217,22 +3151,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>31</v>
@@ -3240,22 +3174,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>31</v>
@@ -3263,22 +3197,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>31</v>
@@ -3286,19 +3220,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3309,22 +3243,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>31</v>
@@ -3332,22 +3266,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>31</v>
@@ -3355,19 +3289,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3378,22 +3312,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>31</v>
@@ -3401,19 +3335,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3424,22 +3358,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>31</v>
@@ -3447,22 +3381,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>31</v>
@@ -3470,22 +3404,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>31</v>
@@ -3493,19 +3427,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3516,22 +3450,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>31</v>
@@ -3539,22 +3473,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>31</v>
@@ -3562,22 +3496,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>31</v>
@@ -3585,19 +3519,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3608,22 +3542,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>31</v>
@@ -3634,22 +3568,22 @@
         <v>106</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130">
@@ -3657,22 +3591,22 @@
         <v>106</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131">
@@ -3680,22 +3614,22 @@
         <v>106</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132">
@@ -3703,200 +3637,200 @@
         <v>106</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3907,19 +3841,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3930,19 +3864,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3953,19 +3887,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3976,19 +3910,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3999,19 +3933,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4022,19 +3956,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4045,19 +3979,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4068,19 +4002,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4091,19 +4025,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4114,19 +4048,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4137,19 +4071,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4160,19 +4094,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4183,19 +4117,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4206,19 +4140,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4229,19 +4163,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4252,19 +4186,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4275,19 +4209,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4298,19 +4232,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4321,19 +4255,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4344,19 +4278,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4367,19 +4301,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4390,19 +4324,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4413,19 +4347,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4436,19 +4370,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4459,19 +4393,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4482,19 +4416,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4505,19 +4439,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4528,19 +4462,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4551,33 +4485,33 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
@@ -4586,21 +4520,21 @@
         <v>135</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
@@ -4609,67 +4543,67 @@
         <v>135</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
@@ -4678,1300 +4612,1185 @@
         <v>135</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="E175" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>177</v>
+        <v>55</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -604,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1679,22 +1685,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>31</v>
@@ -1702,22 +1708,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>31</v>
@@ -1725,19 +1731,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1748,19 +1754,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1771,19 +1777,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1794,19 +1800,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1817,19 +1823,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1840,19 +1846,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1863,22 +1869,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>31</v>
@@ -1886,22 +1892,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>31</v>
@@ -1909,22 +1915,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>31</v>
@@ -1932,19 +1938,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>19</v>
@@ -1955,22 +1961,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>31</v>
@@ -1978,19 +1984,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2001,19 +2007,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2024,22 +2030,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>31</v>
@@ -2047,19 +2053,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2070,19 +2076,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>19</v>
@@ -2093,19 +2099,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2116,19 +2122,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>19</v>
@@ -2139,22 +2145,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>31</v>
@@ -2162,22 +2168,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>31</v>
@@ -2185,22 +2191,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>31</v>
@@ -2208,19 +2214,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2231,19 +2237,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2254,22 +2260,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>31</v>
@@ -2277,19 +2283,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2300,19 +2306,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>19</v>
@@ -2323,22 +2329,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>31</v>
@@ -2346,19 +2352,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>19</v>
@@ -2369,22 +2375,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>31</v>
@@ -2392,22 +2398,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>31</v>
@@ -2415,19 +2421,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2438,19 +2444,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2461,19 +2467,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2484,19 +2490,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2507,19 +2513,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2530,22 +2536,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>31</v>
@@ -2553,19 +2559,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2576,19 +2582,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>19</v>
@@ -2599,22 +2605,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>31</v>
@@ -2622,22 +2628,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>31</v>
@@ -2645,22 +2651,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>31</v>
@@ -2668,19 +2674,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2691,19 +2697,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2714,22 +2720,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>31</v>
@@ -2737,22 +2743,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>31</v>
@@ -2760,22 +2766,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>31</v>
@@ -2783,22 +2789,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>31</v>
@@ -2806,19 +2812,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>19</v>
@@ -2829,19 +2835,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2852,22 +2858,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>31</v>
@@ -2875,22 +2881,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>31</v>
@@ -2898,19 +2904,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2921,22 +2927,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>31</v>
@@ -2944,19 +2950,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2967,22 +2973,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>31</v>
@@ -2990,19 +2996,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>19</v>
@@ -3016,7 +3022,7 @@
         <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3025,10 +3031,10 @@
         <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>31</v>
@@ -3039,19 +3045,19 @@
         <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>31</v>
@@ -3062,7 +3068,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3071,10 +3077,10 @@
         <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>31</v>
@@ -3082,22 +3088,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>31</v>
@@ -3105,19 +3111,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3128,19 +3134,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3151,19 +3157,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3174,19 +3180,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3197,22 +3203,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>31</v>
@@ -3220,19 +3226,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3243,22 +3249,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>31</v>
@@ -3266,19 +3272,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>19</v>
@@ -3289,19 +3295,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3312,22 +3318,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>31</v>
@@ -3335,22 +3341,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>31</v>
@@ -3358,19 +3364,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3381,19 +3387,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3404,19 +3410,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>19</v>
@@ -3427,19 +3433,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3450,19 +3456,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>19</v>
@@ -3473,22 +3479,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>31</v>
@@ -3496,22 +3502,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>31</v>
@@ -3519,19 +3525,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3542,22 +3548,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>31</v>
@@ -3565,22 +3571,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>31</v>
@@ -3588,22 +3594,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>31</v>
@@ -3611,19 +3617,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3634,22 +3640,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>31</v>
@@ -3660,16 +3666,16 @@
         <v>108</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3683,19 +3689,19 @@
         <v>108</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>31</v>
@@ -3706,16 +3712,16 @@
         <v>108</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3729,19 +3735,19 @@
         <v>108</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>31</v>
@@ -3749,19 +3755,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3772,19 +3778,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3795,19 +3801,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3818,19 +3824,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3841,19 +3847,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3864,19 +3870,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3887,19 +3893,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3910,19 +3916,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3933,19 +3939,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3956,19 +3962,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3979,19 +3985,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4002,19 +4008,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4025,19 +4031,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4048,19 +4054,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4071,19 +4077,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4094,19 +4100,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4117,19 +4123,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4140,19 +4146,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4163,19 +4169,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4186,19 +4192,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4212,16 +4218,16 @@
         <v>110</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E157" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4235,16 +4241,16 @@
         <v>110</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4258,16 +4264,16 @@
         <v>110</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4281,16 +4287,16 @@
         <v>110</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4304,16 +4310,16 @@
         <v>110</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4324,19 +4330,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4347,19 +4353,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4370,19 +4376,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4393,19 +4399,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4416,19 +4422,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4439,19 +4445,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4462,19 +4468,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4485,1312 +4491,1450 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E170" s="2" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E173" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E190" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
+      <c r="E196" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D197" s="2" t="s">
+      <c r="E197" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="2" t="s">
+      <c r="E198" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199" s="2" t="s">
+      <c r="E199" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" s="2" t="s">
+      <c r="E200" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F219" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G219" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G221" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G222" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B225" s="2" t="s">
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E225" s="2" t="s">
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="182">
   <si>
     <t>Sezione</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -610,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H231"/>
+  <dimension ref="A1:H237"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1708,22 +1714,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>31</v>
@@ -1731,22 +1737,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>31</v>
@@ -1754,19 +1760,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1783,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1806,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1829,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1852,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1875,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1892,22 +1898,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>31</v>
@@ -1915,22 +1921,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>31</v>
@@ -1938,22 +1944,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>31</v>
@@ -1961,19 +1967,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>19</v>
@@ -1984,22 +1990,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>31</v>
@@ -2007,19 +2013,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2030,22 +2036,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>31</v>
@@ -2053,22 +2059,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>31</v>
@@ -2076,19 +2082,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>19</v>
@@ -2099,19 +2105,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2128,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>19</v>
@@ -2145,19 +2151,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2174,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>19</v>
@@ -2191,22 +2197,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>31</v>
@@ -2214,22 +2220,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>31</v>
@@ -2237,22 +2243,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>31</v>
@@ -2260,19 +2266,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2289,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2306,22 +2312,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>31</v>
@@ -2329,19 +2335,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2358,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>19</v>
@@ -2375,22 +2381,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>31</v>
@@ -2398,19 +2404,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>19</v>
@@ -2421,22 +2427,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>31</v>
@@ -2444,22 +2450,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>31</v>
@@ -2467,19 +2473,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2496,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2519,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2542,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2565,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2582,22 +2588,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>31</v>
@@ -2605,19 +2611,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2628,19 +2634,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>19</v>
@@ -2651,22 +2657,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>31</v>
@@ -2674,22 +2680,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>31</v>
@@ -2697,22 +2703,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>31</v>
@@ -2720,22 +2726,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>31</v>
@@ -2743,19 +2749,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2766,19 +2772,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>19</v>
@@ -2789,22 +2795,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>31</v>
@@ -2812,22 +2818,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>31</v>
@@ -2835,22 +2841,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>31</v>
@@ -2858,22 +2864,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>31</v>
@@ -2881,19 +2887,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>19</v>
@@ -2904,19 +2910,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2927,22 +2933,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>31</v>
@@ -2950,22 +2956,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>31</v>
@@ -2973,19 +2979,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2996,22 +3002,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>31</v>
@@ -3019,19 +3025,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3042,22 +3048,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>31</v>
@@ -3065,19 +3071,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>19</v>
@@ -3091,7 +3097,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3100,10 +3106,10 @@
         <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>31</v>
@@ -3114,19 +3120,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>31</v>
@@ -3137,7 +3143,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3146,10 +3152,10 @@
         <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>31</v>
@@ -3157,22 +3163,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>31</v>
@@ -3180,19 +3186,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3203,19 +3209,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3226,19 +3232,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3249,19 +3255,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3272,22 +3278,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>31</v>
@@ -3295,19 +3301,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3318,22 +3324,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>31</v>
@@ -3341,19 +3347,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>19</v>
@@ -3364,19 +3370,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3387,22 +3393,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>31</v>
@@ -3410,19 +3416,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>19</v>
@@ -3433,19 +3439,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3456,22 +3462,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>31</v>
@@ -3479,22 +3485,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>31</v>
@@ -3502,19 +3508,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>19</v>
@@ -3525,19 +3531,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3548,19 +3554,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>19</v>
@@ -3571,22 +3577,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>31</v>
@@ -3594,22 +3600,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>31</v>
@@ -3617,19 +3623,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3640,22 +3646,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>31</v>
@@ -3663,22 +3669,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>31</v>
@@ -3686,22 +3692,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>31</v>
@@ -3709,19 +3715,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3732,22 +3738,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>31</v>
@@ -3758,16 +3764,16 @@
         <v>110</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3781,19 +3787,19 @@
         <v>110</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>31</v>
@@ -3804,16 +3810,16 @@
         <v>110</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3827,19 +3833,19 @@
         <v>110</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>31</v>
@@ -3847,19 +3853,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3870,19 +3876,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3893,19 +3899,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3916,19 +3922,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3939,19 +3945,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3962,19 +3968,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3985,19 +3991,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4008,19 +4014,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4031,19 +4037,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4054,19 +4060,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4077,19 +4083,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4100,19 +4106,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4123,19 +4129,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4146,19 +4152,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4169,19 +4175,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4192,19 +4198,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4215,19 +4221,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4238,19 +4244,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4261,19 +4267,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4284,19 +4290,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4307,19 +4313,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4333,16 +4339,16 @@
         <v>112</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E162" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4356,16 +4362,16 @@
         <v>112</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4379,16 +4385,16 @@
         <v>112</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4402,16 +4408,16 @@
         <v>112</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4425,16 +4431,16 @@
         <v>112</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4445,19 +4451,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4468,19 +4474,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4491,19 +4497,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4514,19 +4520,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4537,19 +4543,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4560,19 +4566,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4583,19 +4589,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4606,1335 +4612,1473 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E175" s="2" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E178" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E195" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" s="2" t="s">
+      <c r="E201" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D202" s="2" t="s">
+      <c r="E202" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203" s="2" t="s">
+      <c r="E203" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D204" s="2" t="s">
+      <c r="E204" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205" s="2" t="s">
+      <c r="E205" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F225" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G225" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B231" s="2" t="s">
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E231" s="2" t="s">
+      <c r="C236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E236" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="184">
   <si>
     <t>Sezione</t>
   </si>
@@ -420,6 +420,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -616,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H237"/>
+  <dimension ref="A1:H239"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4710,7 +4716,7 @@
         <v>136</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>116</v>
@@ -4727,286 +4733,286 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -5015,996 +5021,996 @@
         <v>141</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" s="2" t="s">
+      <c r="E206" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D207" s="2" t="s">
+      <c r="E207" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
@@ -6015,22 +6021,22 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>31</v>
@@ -6038,19 +6044,19 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E236" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
@@ -6061,24 +6067,70 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E237" s="2" t="s">
+      <c r="C238" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E238" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F237" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G237" s="2" t="s">
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="182">
   <si>
     <t>Sezione</t>
   </si>
@@ -348,12 +348,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
   </si>
   <si>
     <t>Atto Nascita Figlio</t>
@@ -622,16 +616,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H239"/>
+  <dimension ref="A1:H213"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.51171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="82.625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -3862,16 +3856,16 @@
         <v>112</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3885,16 +3879,16 @@
         <v>112</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3908,16 +3902,16 @@
         <v>112</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3931,16 +3925,16 @@
         <v>112</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3954,16 +3948,16 @@
         <v>112</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3977,16 +3971,16 @@
         <v>112</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4000,16 +3994,16 @@
         <v>112</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4023,16 +4017,16 @@
         <v>112</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4046,16 +4040,16 @@
         <v>112</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4069,16 +4063,16 @@
         <v>112</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4092,16 +4086,16 @@
         <v>112</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4115,16 +4109,16 @@
         <v>112</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4138,16 +4132,16 @@
         <v>112</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4158,1979 +4152,1381 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -5078,7 +5078,7 @@
         <v>68</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>163</v>
@@ -5101,7 +5101,7 @@
         <v>70</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>163</v>
@@ -5110,7 +5110,7 @@
         <v>71</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>165</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="186">
   <si>
     <t>Sezione</t>
   </si>
@@ -170,6 +170,18 @@
     <t>sesso</t>
   </si>
   <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
+  </si>
+  <si>
     <t>Data nascita</t>
   </si>
   <si>
@@ -308,6 +320,9 @@
     <t>evento.madre</t>
   </si>
   <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Provincia AIRE</t>
   </si>
   <si>
@@ -510,9 +525,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -616,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1737,22 +1749,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>31</v>
@@ -1760,19 +1772,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1783,22 +1795,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>31</v>
@@ -1806,19 +1818,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1829,19 +1841,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1852,19 +1864,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1875,19 +1887,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1898,22 +1910,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>31</v>
@@ -1921,22 +1933,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>31</v>
@@ -1944,19 +1956,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1967,22 +1979,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>31</v>
@@ -1990,22 +2002,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>31</v>
@@ -2013,22 +2025,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>31</v>
@@ -2036,19 +2048,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2059,19 +2071,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>19</v>
@@ -2082,19 +2094,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>19</v>
@@ -2105,19 +2117,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2128,22 +2140,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>31</v>
@@ -2151,22 +2163,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>31</v>
@@ -2174,19 +2186,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>19</v>
@@ -2197,19 +2209,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2232,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>19</v>
@@ -2243,22 +2255,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>31</v>
@@ -2266,22 +2278,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>31</v>
@@ -2289,19 +2301,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2312,22 +2324,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>31</v>
@@ -2335,22 +2347,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>31</v>
@@ -2358,22 +2370,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>31</v>
@@ -2381,19 +2393,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2416,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>19</v>
@@ -2427,22 +2439,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>31</v>
@@ -2450,19 +2462,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>19</v>
@@ -2473,19 +2485,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2496,22 +2508,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>31</v>
@@ -2519,22 +2531,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>31</v>
@@ -2542,22 +2554,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>31</v>
@@ -2565,19 +2577,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2588,19 +2600,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2611,19 +2623,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2634,22 +2646,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>31</v>
@@ -2657,22 +2669,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>31</v>
@@ -2680,22 +2692,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>31</v>
@@ -2703,22 +2715,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>31</v>
@@ -2726,19 +2738,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2749,19 +2761,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2772,19 +2784,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>19</v>
@@ -2795,22 +2807,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>31</v>
@@ -2818,22 +2830,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>31</v>
@@ -2841,19 +2853,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>19</v>
@@ -2864,19 +2876,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2887,22 +2899,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>31</v>
@@ -2910,22 +2922,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>31</v>
@@ -2933,19 +2945,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>19</v>
@@ -2956,22 +2968,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>31</v>
@@ -2979,22 +2991,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>31</v>
@@ -3002,19 +3014,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3025,22 +3037,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>31</v>
@@ -3048,19 +3060,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3071,19 +3083,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>19</v>
@@ -3094,22 +3106,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>31</v>
@@ -3117,22 +3129,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>31</v>
@@ -3140,22 +3152,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>31</v>
@@ -3163,22 +3175,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>31</v>
@@ -3186,19 +3198,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3209,22 +3221,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>31</v>
@@ -3232,19 +3244,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3255,22 +3267,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>31</v>
@@ -3278,22 +3290,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>31</v>
@@ -3301,22 +3313,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>31</v>
@@ -3324,19 +3336,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3347,22 +3359,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>31</v>
@@ -3370,19 +3382,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3393,22 +3405,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>31</v>
@@ -3416,19 +3428,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>19</v>
@@ -3439,19 +3451,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3462,19 +3474,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3485,22 +3497,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>31</v>
@@ -3508,22 +3520,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>31</v>
@@ -3531,22 +3543,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>31</v>
@@ -3554,22 +3566,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>31</v>
@@ -3577,22 +3589,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>31</v>
@@ -3600,19 +3612,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>19</v>
@@ -3623,19 +3635,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3646,22 +3658,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>31</v>
@@ -3669,19 +3681,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>19</v>
@@ -3692,22 +3704,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>31</v>
@@ -3715,19 +3727,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3738,22 +3750,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>31</v>
@@ -3761,19 +3773,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3784,19 +3796,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>19</v>
@@ -3807,19 +3819,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3830,19 +3842,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>19</v>
@@ -3853,22 +3865,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>31</v>
@@ -3876,19 +3888,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3899,19 +3911,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3922,19 +3934,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3945,19 +3957,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3968,22 +3980,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>31</v>
@@ -3991,19 +4003,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4014,22 +4026,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>31</v>
@@ -4037,19 +4049,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4060,19 +4072,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4083,19 +4095,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4106,19 +4118,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4129,19 +4141,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4152,401 +4164,401 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E168" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4555,21 +4567,21 @@
         <v>144</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -4578,21 +4590,21 @@
         <v>144</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -4601,795 +4613,795 @@
         <v>144</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E175" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="E177" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F182" s="2" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E189" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="208">
@@ -5397,22 +5409,22 @@
         <v>167</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="E208" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="209">
@@ -5420,22 +5432,22 @@
         <v>167</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F209" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E209" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="G209" s="2" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
     </row>
     <row r="210">
@@ -5443,22 +5455,22 @@
         <v>167</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
     </row>
     <row r="211">
@@ -5466,22 +5478,22 @@
         <v>167</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
     </row>
     <row r="212">
@@ -5489,22 +5501,22 @@
         <v>167</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
     </row>
     <row r="213">
@@ -5512,21 +5524,251 @@
         <v>167</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E213" s="2" t="s">
+      <c r="E221" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F213" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G213" s="2" t="s">
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="189">
   <si>
     <t>Sezione</t>
   </si>
@@ -50,30 +50,30 @@
     <t>Copia integrale dell'atto di nascita del dichiarante</t>
   </si>
   <si>
+    <t>Copia dell'atto di riconoscimento effettuato dell'altro genitore</t>
+  </si>
+  <si>
+    <t>Sentenza del Tribunale che autorizza al riconoscimento senza il consenso dell'altro genitore</t>
+  </si>
+  <si>
+    <t>Atto notarile consenso</t>
+  </si>
+  <si>
+    <t>Copia dell'atto di consenso dell'altro genitore</t>
+  </si>
+  <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
     <t>SI</t>
   </si>
   <si>
-    <t>Copia dell'atto di riconoscimento effettuato dell'altro genitore</t>
-  </si>
-  <si>
-    <t>Sentenza del Tribunale che autorizza al riconoscimento senza il consenso dell'altro genitore</t>
-  </si>
-  <si>
-    <t>Atto notarile consenso</t>
-  </si>
-  <si>
-    <t>Copia dell'atto di consenso dell'altro genitore</t>
-  </si>
-  <si>
-    <t>Autorizzazione del tribunale</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
     <t>194</t>
   </si>
   <si>
@@ -377,6 +377,9 @@
     <t>idAnsc</t>
   </si>
   <si>
+    <t>opzionale</t>
+  </si>
+  <si>
     <t>Provincia registrazione</t>
   </si>
   <si>
@@ -441,6 +444,12 @@
   </si>
   <si>
     <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto non trascritto</t>
+  </si>
+  <si>
+    <t>attoNascitaNonTrascritto</t>
   </si>
   <si>
     <t>Atto Consenso</t>
@@ -628,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H223"/>
+  <dimension ref="A1:H224"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -697,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -717,7 +726,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -740,7 +749,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -763,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -786,7 +795,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -809,7 +818,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -829,13 +838,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -852,7 +861,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -875,7 +884,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -898,7 +907,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -921,7 +930,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -944,7 +953,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -967,7 +976,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>25</v>
@@ -1019,7 +1028,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>29</v>
@@ -1042,7 +1051,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
@@ -1065,7 +1074,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
@@ -1088,7 +1097,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
@@ -1111,7 +1120,7 @@
         <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
@@ -1134,7 +1143,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
@@ -1810,7 +1819,7 @@
         <v>45</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>31</v>
@@ -1824,7 +1833,7 @@
         <v>46</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>101</v>
@@ -1870,7 +1879,7 @@
         <v>50</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>101</v>
@@ -1925,7 +1934,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>31</v>
@@ -1939,7 +1948,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>101</v>
@@ -1962,7 +1971,7 @@
         <v>58</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>101</v>
@@ -1985,7 +1994,7 @@
         <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>101</v>
@@ -2040,7 +2049,7 @@
         <v>65</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>31</v>
@@ -2086,7 +2095,7 @@
         <v>69</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>31</v>
@@ -2109,7 +2118,7 @@
         <v>71</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>31</v>
@@ -2123,7 +2132,7 @@
         <v>72</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>101</v>
@@ -2146,7 +2155,7 @@
         <v>74</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>101</v>
@@ -2178,7 +2187,7 @@
         <v>77</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>31</v>
@@ -2201,7 +2210,7 @@
         <v>79</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>31</v>
@@ -2247,7 +2256,7 @@
         <v>83</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>31</v>
@@ -2293,7 +2302,7 @@
         <v>87</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>31</v>
@@ -2339,7 +2348,7 @@
         <v>91</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>31</v>
@@ -2362,7 +2371,7 @@
         <v>93</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>31</v>
@@ -2376,7 +2385,7 @@
         <v>94</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>101</v>
@@ -2399,7 +2408,7 @@
         <v>96</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>101</v>
@@ -2431,7 +2440,7 @@
         <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>31</v>
@@ -2477,7 +2486,7 @@
         <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>31</v>
@@ -2523,7 +2532,7 @@
         <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>31</v>
@@ -2546,7 +2555,7 @@
         <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>31</v>
@@ -2569,7 +2578,7 @@
         <v>45</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>31</v>
@@ -2583,7 +2592,7 @@
         <v>46</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>114</v>
@@ -2629,7 +2638,7 @@
         <v>50</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>114</v>
@@ -2684,7 +2693,7 @@
         <v>55</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>31</v>
@@ -2698,7 +2707,7 @@
         <v>56</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>114</v>
@@ -2721,7 +2730,7 @@
         <v>58</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>114</v>
@@ -2744,7 +2753,7 @@
         <v>60</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>114</v>
@@ -2799,7 +2808,7 @@
         <v>65</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>31</v>
@@ -2845,7 +2854,7 @@
         <v>69</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>31</v>
@@ -2868,7 +2877,7 @@
         <v>71</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>31</v>
@@ -2882,7 +2891,7 @@
         <v>72</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>114</v>
@@ -2905,7 +2914,7 @@
         <v>74</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>114</v>
@@ -2937,7 +2946,7 @@
         <v>77</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>31</v>
@@ -2960,7 +2969,7 @@
         <v>79</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>31</v>
@@ -3006,7 +3015,7 @@
         <v>83</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>31</v>
@@ -3052,7 +3061,7 @@
         <v>87</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>31</v>
@@ -3098,7 +3107,7 @@
         <v>91</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>31</v>
@@ -3121,7 +3130,7 @@
         <v>93</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>31</v>
@@ -3135,7 +3144,7 @@
         <v>94</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>114</v>
@@ -3158,7 +3167,7 @@
         <v>96</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>114</v>
@@ -3181,7 +3190,7 @@
         <v>98</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>114</v>
@@ -3236,7 +3245,7 @@
         <v>106</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>31</v>
@@ -3282,7 +3291,7 @@
         <v>110</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>31</v>
@@ -3305,7 +3314,7 @@
         <v>112</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>31</v>
@@ -3328,7 +3337,7 @@
         <v>45</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>31</v>
@@ -3342,7 +3351,7 @@
         <v>46</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>116</v>
@@ -3388,7 +3397,7 @@
         <v>50</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>116</v>
@@ -3443,7 +3452,7 @@
         <v>55</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>31</v>
@@ -3457,7 +3466,7 @@
         <v>56</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>116</v>
@@ -3480,7 +3489,7 @@
         <v>58</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>116</v>
@@ -3503,7 +3512,7 @@
         <v>60</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>116</v>
@@ -3558,7 +3567,7 @@
         <v>65</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>31</v>
@@ -3604,7 +3613,7 @@
         <v>69</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>31</v>
@@ -3627,7 +3636,7 @@
         <v>71</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>31</v>
@@ -3641,7 +3650,7 @@
         <v>72</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>116</v>
@@ -3664,7 +3673,7 @@
         <v>74</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>116</v>
@@ -3696,7 +3705,7 @@
         <v>77</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>31</v>
@@ -3719,7 +3728,7 @@
         <v>79</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>31</v>
@@ -3765,7 +3774,7 @@
         <v>83</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>31</v>
@@ -3811,7 +3820,7 @@
         <v>87</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>31</v>
@@ -3857,7 +3866,7 @@
         <v>91</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>31</v>
@@ -3880,7 +3889,7 @@
         <v>93</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>31</v>
@@ -3894,7 +3903,7 @@
         <v>94</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>116</v>
@@ -3917,7 +3926,7 @@
         <v>96</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>116</v>
@@ -3940,7 +3949,7 @@
         <v>98</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>116</v>
@@ -3995,7 +4004,7 @@
         <v>106</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>31</v>
@@ -4041,7 +4050,7 @@
         <v>110</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>31</v>
@@ -4067,7 +4076,7 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150">
@@ -4075,22 +4084,22 @@
         <v>117</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
     </row>
     <row r="151">
@@ -4098,22 +4107,22 @@
         <v>117</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
     </row>
     <row r="152">
@@ -4121,22 +4130,22 @@
         <v>117</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153">
@@ -4144,22 +4153,22 @@
         <v>117</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
     </row>
     <row r="154">
@@ -4167,22 +4176,22 @@
         <v>117</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
     </row>
     <row r="155">
@@ -4190,10 +4199,10 @@
         <v>117</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>119</v>
@@ -4205,7 +4214,7 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156">
@@ -4213,22 +4222,22 @@
         <v>117</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
     </row>
     <row r="157">
@@ -4236,10 +4245,10 @@
         <v>117</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>119</v>
@@ -4251,7 +4260,7 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
     </row>
     <row r="158">
@@ -4259,7 +4268,7 @@
         <v>117</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4268,13 +4277,13 @@
         <v>119</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
     </row>
     <row r="159">
@@ -4282,7 +4291,7 @@
         <v>117</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4291,13 +4300,13 @@
         <v>119</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
     </row>
     <row r="160">
@@ -4305,7 +4314,7 @@
         <v>117</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4314,13 +4323,13 @@
         <v>119</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
     </row>
     <row r="161">
@@ -4328,352 +4337,352 @@
         <v>117</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F172" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F173" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -4682,312 +4691,312 @@
         <v>149</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>153</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>153</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="F189" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="190">
@@ -4995,7 +5004,7 @@
         <v>167</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -5004,677 +5013,677 @@
         <v>168</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="F190" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D218" s="2" t="s">
+      <c r="E218" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
         <v>31</v>
@@ -5682,22 +5691,22 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>31</v>
@@ -5705,16 +5714,16 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>181</v>
@@ -5728,19 +5737,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5751,24 +5760,47 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
         <v>31</v>
       </c>
     </row>
